--- a/products1230.xlsx
+++ b/products1230.xlsx
@@ -4,12 +4,12 @@
   <x:fileVersion appName="HCell" lastEdited="9.6" lowestEdited="9.6" rupBuild="1.7545"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="此活頁簿" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="18800" windowHeight="6840" tabRatio="500" activeTab="3"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="18800" windowHeight="6840" tabRatio="500" activeTab="2"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="products" sheetId="1" r:id="rId4"/>
-    <x:sheet name="prod_weight" sheetId="2" r:id="rId5"/>
-    <x:sheet name="prod_grind" sheetId="3" r:id="rId6"/>
+    <x:sheet name="products_size" sheetId="2" r:id="rId5"/>
+    <x:sheet name="products_grind" sheetId="3" r:id="rId6"/>
     <x:sheet name="categories" sheetId="4" r:id="rId7"/>
   </x:sheets>
   <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="904"/>
@@ -19,357 +19,459 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="242">
   <x:si>
+    <x:t>美洲</x:t>
+  </x:si>
+  <x:si>
+    <x:t>熱紅酒</x:t>
+  </x:si>
+  <x:si>
+    <x:t>一磅</x:t>
+  </x:si>
+  <x:si>
+    <x:t>牧羊犬</x:t>
+  </x:si>
+  <x:si>
+    <x:t>小獵犬</x:t>
+  </x:si>
+  <x:si>
+    <x:t>柯契爾</x:t>
+  </x:si>
+  <x:si>
+    <x:t>中焙</x:t>
+  </x:si>
+  <x:si>
+    <x:t>柔和酸</x:t>
+  </x:si>
+  <x:si>
+    <x:t>淺焙</x:t>
+  </x:si>
+  <x:si>
+    <x:t>半磅</x:t>
+  </x:si>
+  <x:si>
+    <x:t>不酸</x:t>
+  </x:si>
+  <x:si>
+    <x:t>亞洲</x:t>
+  </x:si>
+  <x:si>
+    <x:t>肯亞</x:t>
+  </x:si>
+  <x:si>
+    <x:t>紫風鈴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>糖老鴨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>明亮酸</x:t>
+  </x:si>
+  <x:si>
+    <x:t>中淺焙</x:t>
+  </x:si>
+  <x:si>
+    <x:t>桃樂絲</x:t>
+  </x:si>
+  <x:si>
+    <x:t>奧茲瑪</x:t>
+  </x:si>
+  <x:si>
+    <x:t>中深焙</x:t>
+  </x:si>
+  <x:si>
+    <x:t>花神</x:t>
+  </x:si>
+  <x:si>
+    <x:t>獅子王</x:t>
+  </x:si>
+  <x:si>
+    <x:t>磨粉</x:t>
+  </x:si>
+  <x:si>
+    <x:t>日曬</x:t>
+  </x:si>
+  <x:si>
+    <x:t>豆單</x:t>
+  </x:si>
+  <x:si>
+    <x:t>非洲</x:t>
+  </x:si>
+  <x:si>
+    <x:t>蜜處理</x:t>
+  </x:si>
+  <x:si>
+    <x:t>吉格薩</x:t>
+  </x:si>
+  <x:si>
+    <x:t>酸</x:t>
+  </x:si>
+  <x:si>
+    <x:t>水洗</x:t>
+  </x:si>
+  <x:si>
+    <x:t>id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>教父</x:t>
+  </x:si>
+  <x:si>
+    <x:t>特殊</x:t>
+  </x:si>
+  <x:si>
+    <x:t>貝多芬</x:t>
+  </x:si>
+  <x:si>
+    <x:t>蒲隆地</x:t>
+  </x:si>
+  <x:si>
+    <x:t>莫札特</x:t>
+  </x:si>
+  <x:si>
+    <x:t>塔拉珠</x:t>
+  </x:si>
+  <x:si>
+    <x:t>牧羊人</x:t>
+  </x:si>
+  <x:si>
+    <x:t>原豆</x:t>
+  </x:si>
+  <x:si>
+    <x:t>榛果、奶油、 楓糖，蘋果般酸質，Body細緻黏稠。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>甜度、稠度、厚度相當良好，有著類似香蕉乾的熟果甜味。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>碧雅莊園 藝妓</x:t>
+  </x:si>
+  <x:si>
+    <x:t>以洲別分類</x:t>
+  </x:si>
+  <x:si>
+    <x:t>prod_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>牙買加 藍山</x:t>
+  </x:si>
+  <x:si>
+    <x:t>咖啡器材</x:t>
+  </x:si>
+  <x:si>
+    <x:t>水果藝伎嘉年華</x:t>
+  </x:si>
+  <x:si>
+    <x:t>嚴選商品</x:t>
+  </x:si>
+  <x:si>
+    <x:t>雪冽圖 山梨花</x:t>
+  </x:si>
+  <x:si>
+    <x:t>可可森巴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>耶加雪菲</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cat_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>以處理法分類</x:t>
+  </x:si>
+  <x:si>
+    <x:t>巨石莊園 藝妓</x:t>
+  </x:si>
+  <x:si>
+    <x:t>夏日山亭微醺夢</x:t>
+  </x:si>
+  <x:si>
+    <x:t>熱銷排行</x:t>
+  </x:si>
+  <x:si>
+    <x:t>鳳凰舞妓</x:t>
+  </x:si>
+  <x:si>
+    <x:t>以烘培度分類</x:t>
+  </x:si>
+  <x:si>
+    <x:t>麥芽糖風笛手</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.2磅</x:t>
+  </x:si>
+  <x:si>
+    <x:t>莓橘小姐</x:t>
+  </x:si>
+  <x:si>
+    <x:t>古吉 水仙</x:t>
+  </x:si>
+  <x:si>
+    <x:t>以酸度分類</x:t>
+  </x:si>
+  <x:si>
+    <x:t>水果風華</x:t>
+  </x:si>
+  <x:si>
+    <x:t>薇薇特南果</x:t>
+  </x:si>
+  <x:si>
+    <x:t>果丁丁特選</x:t>
+  </x:si>
+  <x:si>
+    <x:t>曼巴頓練習曲</x:t>
+  </x:si>
+  <x:si>
+    <x:t>耶加雪菲 班可</x:t>
+  </x:si>
+  <x:si>
     <x:t>prod_process</x:t>
   </x:si>
   <x:si>
+    <x:t>適合加奶，可可、堅果、甜感足。</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">古吉罕貝拉 布榖阿貝兒 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>莓果、奶油、核果、巧克力。</x:t>
+  </x:si>
+  <x:si>
     <x:t>prod_thumbnail</x:t>
   </x:si>
   <x:si>
-    <x:t>中淺焙</x:t>
-  </x:si>
-  <x:si>
-    <x:t>柔和酸</x:t>
-  </x:si>
-  <x:si>
-    <x:t>中焙</x:t>
-  </x:si>
-  <x:si>
-    <x:t>美洲</x:t>
-  </x:si>
-  <x:si>
-    <x:t>磨粉</x:t>
-  </x:si>
-  <x:si>
-    <x:t>淺焙</x:t>
-  </x:si>
-  <x:si>
-    <x:t>中深焙</x:t>
-  </x:si>
-  <x:si>
-    <x:t>明亮酸</x:t>
-  </x:si>
-  <x:si>
-    <x:t>不酸</x:t>
-  </x:si>
-  <x:si>
-    <x:t>日曬</x:t>
-  </x:si>
-  <x:si>
-    <x:t>小獵犬</x:t>
-  </x:si>
-  <x:si>
-    <x:t>半磅</x:t>
-  </x:si>
-  <x:si>
-    <x:t>奧茲瑪</x:t>
-  </x:si>
-  <x:si>
-    <x:t>柯契爾</x:t>
-  </x:si>
-  <x:si>
-    <x:t>花神</x:t>
-  </x:si>
-  <x:si>
-    <x:t>亞洲</x:t>
-  </x:si>
-  <x:si>
-    <x:t>熱紅酒</x:t>
-  </x:si>
-  <x:si>
-    <x:t>紫風鈴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>獅子王</x:t>
-  </x:si>
-  <x:si>
-    <x:t>肯亞</x:t>
-  </x:si>
-  <x:si>
-    <x:t>教父</x:t>
-  </x:si>
-  <x:si>
-    <x:t>桃樂絲</x:t>
-  </x:si>
-  <x:si>
-    <x:t>牧羊犬</x:t>
-  </x:si>
-  <x:si>
-    <x:t>糖老鴨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>原豆</x:t>
-  </x:si>
-  <x:si>
-    <x:t>一磅</x:t>
-  </x:si>
-  <x:si>
-    <x:t>吉格薩</x:t>
-  </x:si>
-  <x:si>
-    <x:t>酸</x:t>
-  </x:si>
-  <x:si>
-    <x:t>水洗</x:t>
-  </x:si>
-  <x:si>
-    <x:t>莫札特</x:t>
-  </x:si>
-  <x:si>
-    <x:t>id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>蜜處理</x:t>
-  </x:si>
-  <x:si>
-    <x:t>特殊</x:t>
-  </x:si>
-  <x:si>
-    <x:t>塔拉珠</x:t>
-  </x:si>
-  <x:si>
-    <x:t>非洲</x:t>
-  </x:si>
-  <x:si>
-    <x:t>牧羊人</x:t>
-  </x:si>
-  <x:si>
-    <x:t>貝多芬</x:t>
-  </x:si>
-  <x:si>
-    <x:t>蒲隆地</x:t>
-  </x:si>
-  <x:si>
-    <x:t>嚴選商品</x:t>
-  </x:si>
-  <x:si>
-    <x:t>熱銷排行</x:t>
-  </x:si>
-  <x:si>
-    <x:t>以酸度分類</x:t>
-  </x:si>
-  <x:si>
-    <x:t>以洲別分類</x:t>
-  </x:si>
-  <x:si>
-    <x:t>咖啡器材</x:t>
-  </x:si>
-  <x:si>
-    <x:t>以烘培度分類</x:t>
-  </x:si>
-  <x:si>
-    <x:t>以處理法分類</x:t>
-  </x:si>
-  <x:si>
-    <x:t>coffee_size</x:t>
+    <x:t>柑橘、李子、麥芽糖、有著厚實圓的風味。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>葡萄、果乾、焦糖的甜感，口感乾淨厚實。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>香水檸檬、佛手柑的前段香氣，風味強烈。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>焦糖、柑橘皮、清爽的甜感和茶的尾韻。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>紅葡萄、楓糖，果汁感，甜感飽滿。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>奶油可可、烤堅果、紅糖、甜感佳。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>prod_description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>細緻花香、金桔檸檬、葡萄柚的明亮酸甜。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>prod_size</x:t>
+  </x:si>
+  <x:si>
+    <x:t>耶加雪啡 荷芙莎</x:t>
+  </x:si>
+  <x:si>
+    <x:t>西達摩 桃子甜心</x:t>
+  </x:si>
+  <x:si>
+    <x:t>prod_area</x:t>
+  </x:si>
+  <x:si>
+    <x:t>尼加拉瓜 米耶瑞詡</x:t>
+  </x:si>
+  <x:si>
+    <x:t>prod_price</x:t>
+  </x:si>
+  <x:si>
+    <x:t>哥倫比亞 蘭姆酒桶</x:t>
+  </x:si>
+  <x:si>
+    <x:t>哥斯大黎加 寶藏莊園</x:t>
+  </x:si>
+  <x:si>
+    <x:t>哥斯大黎加 芒果莊園</x:t>
+  </x:si>
+  <x:si>
+    <x:t>斯里蘭卡的調酒師</x:t>
+  </x:si>
+  <x:si>
+    <x:t>prod_image</x:t>
   </x:si>
   <x:si>
     <x:t>薩爾瓦多 聖伊蓮娜</x:t>
   </x:si>
   <x:si>
-    <x:t>斯里蘭卡的調酒師</x:t>
+    <x:t>你說陽光會在風雨後</x:t>
+  </x:si>
+  <x:si>
+    <x:t>聖塔安娜火山 雷納斯</x:t>
+  </x:si>
+  <x:si>
+    <x:t>哥斯大黎加 小蜜蜂</x:t>
+  </x:si>
+  <x:si>
+    <x:t>prod_name</x:t>
   </x:si>
   <x:si>
     <x:t>耶加雪菲 晨之莓</x:t>
   </x:si>
   <x:si>
-    <x:t>prod_price</x:t>
-  </x:si>
-  <x:si>
-    <x:t>耶加雪啡 荷芙莎</x:t>
-  </x:si>
-  <x:si>
-    <x:t>哥斯大黎加 芒果莊園</x:t>
-  </x:si>
-  <x:si>
-    <x:t>西達摩 桃子甜心</x:t>
-  </x:si>
-  <x:si>
-    <x:t>你說陽光會在風雨後</x:t>
-  </x:si>
-  <x:si>
-    <x:t>prod_image</x:t>
-  </x:si>
-  <x:si>
-    <x:t>聖塔安娜火山 雷納斯</x:t>
-  </x:si>
-  <x:si>
-    <x:t>尼加拉瓜 米耶瑞詡</x:t>
+    <x:t>parent_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>prod_flavor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cat_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>prod_bake</x:t>
   </x:si>
   <x:si>
     <x:t>凱薩路易斯 火山藝伎</x:t>
   </x:si>
   <x:si>
-    <x:t>哥倫比亞 蘭姆酒桶</x:t>
-  </x:si>
-  <x:si>
-    <x:t>prod_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>哥斯大黎加 小蜜蜂</x:t>
-  </x:si>
-  <x:si>
-    <x:t>prod_area</x:t>
-  </x:si>
-  <x:si>
-    <x:t>哥斯大黎加 寶藏莊園</x:t>
-  </x:si>
-  <x:si>
-    <x:t>prod_flavor</x:t>
-  </x:si>
-  <x:si>
-    <x:t>prod_bake</x:t>
-  </x:si>
-  <x:si>
-    <x:t>水果風華</x:t>
-  </x:si>
-  <x:si>
-    <x:t>水果藝伎嘉年華</x:t>
-  </x:si>
-  <x:si>
-    <x:t>夏日山亭微醺夢</x:t>
-  </x:si>
-  <x:si>
-    <x:t>牙買加 藍山</x:t>
-  </x:si>
-  <x:si>
-    <x:t>碧雅莊園 藝妓</x:t>
-  </x:si>
-  <x:si>
-    <x:t>巨石莊園 藝妓</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cat_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>prod_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>雪冽圖 山梨花</x:t>
-  </x:si>
-  <x:si>
-    <x:t>耶加雪菲</x:t>
-  </x:si>
-  <x:si>
-    <x:t>可可森巴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>鳳凰舞妓</x:t>
-  </x:si>
-  <x:si>
-    <x:t>果丁丁特選</x:t>
-  </x:si>
-  <x:si>
-    <x:t>古吉 水仙</x:t>
-  </x:si>
-  <x:si>
-    <x:t>麥芽糖風笛手</x:t>
-  </x:si>
-  <x:si>
-    <x:t>耶加雪菲 班可</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.2磅</x:t>
-  </x:si>
-  <x:si>
-    <x:t>莓橘小姐</x:t>
-  </x:si>
-  <x:si>
-    <x:t>曼巴頓練習曲</x:t>
-  </x:si>
-  <x:si>
-    <x:t>薇薇特南果</x:t>
-  </x:si>
-  <x:si>
-    <x:t>榛果、奶油、 楓糖，蘋果般酸質，Body細緻黏稠。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>甜度、稠度、厚度相當良好，有著類似香蕉乾的熟果甜味。</x:t>
+    <x:t>綿延的肉桂香氣是整體的風味主軸，尾韻呈現乾淨而溫和的甜感。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>柑橘和紅色莓果的風味，水果酸值明亮。降溫後紅糖的尾韻延續。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>細緻的花香、酸梅汁般的酸甜感，降溫之後出現深色莓果的風味。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>撲鼻而來的是草莓果醬、濃郁木瓜牛奶、帶有起司的濃郁、及優格。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>會有強烈的花香氣，飲用時清爽醇厚的口感，尾韻帶著溫帶水果風。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>在深焙的烘焙程度下，帶出豐厚的油脂感，烤堅果和可可的苦甜。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>麥芽糖及焦糖甜感，低溫出現柔和的果酸，每個溫層的變化豐富。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>烤堅果為主軸，伴隨著麥芽糖的清甜感，茶的綿長尾韻，清爽細膩。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>奶油白花的前段香味，葡萄、桃子等水果風味，帶有滑順的口感。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>入口深色莓果和橘皮，最後焦糖及烏龍茶香，口感層次豐富、順口。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>黑櫻桃、葡萄柚、可可粉、降溫後出現芭樂、綜合蔬果汁風味。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>成熟蘋果、黑醋栗等深色水果、些許肉桂、奶油和香檳的尾韻。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>在溫度稍微下降，哈密瓜精緻的風味出現，整體清爽、酸值迷人。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>可可酒香、熱帶水果、口感豐厚飽滿、日曬風味強勁紮實。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>深色莓果的酸甜，和巧可力的調性，尾韻透出微醺的酒香</x:t>
+  </x:si>
+  <x:si>
+    <x:t>深色漿果、檀香、橘子皮、茉莉、甜熱帶水果、優雅濃郁。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>溫度高時有著草莓和百香果的酸感，溫度降低時帶有點酒香。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>烤堅果、花生醬的風味，苦甜厚實，更適合加奶飲用。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>水仙帶有與其他水洗一樣的清爽酸質，圓潤醇度、尾韻回甘。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>帶果乾風味，奶油堅果般的中等口感，尾韻是麥芽糖的餘韻。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>焦糖核桃風味，帶有明亮的果酸，帶些許的肉桂與葡萄酒香。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>帶著太妃糖甜感，冷卻時會有生巧克力且明亮細緻的酸質。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>烘烤核果、奶油、紅糖、果乾、甜水果調、酸甜感圓潤甜蜜。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>香草、奶油、烤堅果、口感醇厚、風味紮實、甜度佳。</x:t>
   </x:si>
   <x:si>
     <x:t>濃郁醇厚的口感，菸草和黑巧克力的餘韻，苦中回甘。</x:t>
   </x:si>
   <x:si>
-    <x:t>深色漿果、檀香、橘子皮、茉莉、甜熱帶水果、優雅濃郁。</x:t>
+    <x:t>豐富的水果酸甜感，帶黑莓和柑橘風味，明亮多層次。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>葡萄酒香、辛香料、黑巧克力、香草植物、桃子的香氣。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>綠葡萄、香草、草莓、甜瓜、柑橘香氣，紅石榴果汁酸香。</x:t>
   </x:si>
   <x:si>
     <x:t>果乾與烤堅果風味，帶有滑順口感，是一隻清爽的蜜處理。</x:t>
   </x:si>
   <x:si>
-    <x:t>香草、奶油、烤堅果、口感醇厚、風味紮實、甜度佳。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>深色莓果的酸甜，和巧可力的調性，尾韻透出微醺的酒香</x:t>
-  </x:si>
-  <x:si>
-    <x:t>可可酒香、熱帶水果、口感豐厚飽滿、日曬風味強勁紮實。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>烤堅果、花生醬的風味，苦甜厚實，更適合加奶飲用。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>溫度高時有著草莓和百香果的酸感，溫度降低時帶有點酒香。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>水仙帶有與其他水洗一樣的清爽酸質，圓潤醇度、尾韻回甘。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>烘烤核果、奶油、紅糖、果乾、甜水果調、酸甜感圓潤甜蜜。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>綠葡萄、香草、草莓、甜瓜、柑橘香氣，紅石榴果汁酸香。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>豐富的水果酸甜感，帶黑莓和柑橘風味，明亮多層次。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>帶果乾風味，奶油堅果般的中等口感，尾韻是麥芽糖的餘韻。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>焦糖核桃風味，帶有明亮的果酸，帶些許的肉桂與葡萄酒香。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>帶著太妃糖甜感，冷卻時會有生巧克力且明亮細緻的酸質。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>葡萄酒香、辛香料、黑巧克力、香草植物、桃子的香氣。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>豆單</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">古吉罕貝拉 布榖阿貝兒 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>適合加奶，可可、堅果、甜感足。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>coffee_grind</x:t>
-  </x:si>
-  <x:si>
-    <x:t>莓果、奶油、核果、巧克力。</x:t>
+    <x:t>./img/beans_s_018.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_022.jpg</x:t>
   </x:si>
   <x:si>
     <x:t>./img/beans_l_020.jpg</x:t>
   </x:si>
   <x:si>
+    <x:t>./img/beans_l_018.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_024.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_025.jpg</x:t>
+  </x:si>
+  <x:si>
     <x:t>./img/beans_s_023.jpg</x:t>
   </x:si>
   <x:si>
+    <x:t>./img/beans_l_029.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_019.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_026.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_022.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_024.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_027.jpg</x:t>
+  </x:si>
+  <x:si>
     <x:t>./img/beans_s_027.jpg</x:t>
   </x:si>
   <x:si>
+    <x:t>./img/beans_s_026.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_025.jpg</x:t>
+  </x:si>
+  <x:si>
     <x:t>./img/beans_l_023.jpg</x:t>
   </x:si>
   <x:si>
-    <x:t>./img/beans_l_025.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_027.jpg</x:t>
-  </x:si>
-  <x:si>
     <x:t>黑色莓果、熱帶水果風味，尾韻是乾淨的茶香。</x:t>
   </x:si>
   <x:si>
+    <x:t>./img/beans_l_019.jpg</x:t>
+  </x:si>
+  <x:si>
     <x:t>./img/beans_s_021.jpg</x:t>
   </x:si>
   <x:si>
@@ -379,370 +481,268 @@
     <x:t>./img/beans_s_020.jpg</x:t>
   </x:si>
   <x:si>
-    <x:t>./img/beans_l_018.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_022.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_018.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_025.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_019.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_026.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_029.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_026.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_024.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_022.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_024.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_019.jpg</x:t>
-  </x:si>
-  <x:si>
     <x:t>./img/beans_l_028.jpg</x:t>
   </x:si>
   <x:si>
     <x:t>./img/beans_l_041.jpg</x:t>
   </x:si>
   <x:si>
+    <x:t>./img/beans_l_031.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_043.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_037.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_037.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_029.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>檸檬、橙色水果、小紅莓、口感滑順、酸甜感平衡。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_039.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_039.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_034.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_040.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_036.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_042.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_034.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_033.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_041.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_031.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_032.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_038.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_036.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_030.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_030.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>酒香、黑莓、蔓越莓，帶有特殊的熱帶水果香氣。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>豐富的水果調性，帶有些許發酵酒與果乾風味。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_028.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_038.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_035.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_033.jpg</x:t>
+  </x:si>
+  <x:si>
     <x:t>./img/beans_s_032.jpg</x:t>
   </x:si>
   <x:si>
-    <x:t>./img/beans_s_041.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_035.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_038.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_037.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_036.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>豐富的水果調性，帶有些許發酵酒與果乾風味。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_029.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_039.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_037.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_034.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>酒香、黑莓、蔓越莓，帶有特殊的熱帶水果香氣。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_042.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_034.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_031.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_040.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_030.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_033.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_039.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_030.jpg</x:t>
-  </x:si>
-  <x:si>
     <x:t>./img/beans_l_040.jpg</x:t>
   </x:si>
   <x:si>
-    <x:t>./img/beans_l_032.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_028.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_036.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_043.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_031.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_038.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_033.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>檸檬、橙色水果、小紅莓、口感滑順、酸甜感平衡。</x:t>
+    <x:t>./img/beans_s_050.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_046.jpg</x:t>
   </x:si>
   <x:si>
     <x:t>./img/beans_l_001.jpg</x:t>
   </x:si>
   <x:si>
+    <x:t>./img/beans_l_045.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>蘭姆酒、麝香葡萄、櫻桃、核果、 酒香巧克力。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_048.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>典型耶加雪菲風味，莓果和些許茶感，細膩優雅。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_035.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_007.jpg</x:t>
+  </x:si>
+  <x:si>
     <x:t>./img/beans_l_046.jpg</x:t>
   </x:si>
   <x:si>
+    <x:t>./img/beans_s_001.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_044.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_049.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>柑橘、草莓果醬、芒果乾、尾韻有綜合莓果調。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_002.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_045.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_047.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_003.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_042.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_044.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_048.jpg</x:t>
+  </x:si>
+  <x:si>
     <x:t>./img/beans_s_049.jpg</x:t>
   </x:si>
   <x:si>
-    <x:t>./img/beans_s_048.jpg</x:t>
+    <x:t>./img/beans_l_050.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_047.jpg</x:t>
   </x:si>
   <x:si>
     <x:t>./img/beans_s_043.jpg</x:t>
   </x:si>
   <x:si>
-    <x:t>./img/beans_l_042.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_050.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>柑橘、草莓果醬、芒果乾、尾韻有綜合莓果調。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_046.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_035.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_044.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_048.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_049.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_045.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_050.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_001.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>典型耶加雪菲風味，莓果和些許茶感，細膩優雅。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_047.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_002.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>蘭姆酒、麝香葡萄、櫻桃、核果、 酒香巧克力。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_003.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_044.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_045.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_047.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_007.jpg</x:t>
+    <x:t>./img/beans_s_008.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_005.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_004.jpg</x:t>
   </x:si>
   <x:si>
     <x:t>./img/beans_l_008.jpg</x:t>
   </x:si>
   <x:si>
+    <x:t>./img/beans_s_009.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_006.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_002.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_006.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_007.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_010.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_003.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_004.jpg</x:t>
+  </x:si>
+  <x:si>
     <x:t>橘子、白葡萄、花香、蜂蜜般的甜感、些許的酒味。</x:t>
   </x:si>
   <x:si>
     <x:t>./img/beans_s_005.jpg</x:t>
   </x:si>
   <x:si>
-    <x:t>./img/beans_l_006.jpg</x:t>
-  </x:si>
-  <x:si>
     <x:t>./img/beans_l_010.jpg</x:t>
   </x:si>
   <x:si>
-    <x:t>./img/beans_s_009.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_008.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_003.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_002.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_006.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_005.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_007.jpg</x:t>
-  </x:si>
-  <x:si>
     <x:t>玫瑰花、荔枝、豐富的熱帶水果、奶油厚實的口感。</x:t>
   </x:si>
   <x:si>
-    <x:t>./img/beans_s_004.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_004.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_010.jpg</x:t>
+    <x:t>./img/beans_l_011.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_013.jpg</x:t>
   </x:si>
   <x:si>
     <x:t>./img/beans_l_009.jpg</x:t>
   </x:si>
   <x:si>
+    <x:t>./img/beans_s_012.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_012.jpg</x:t>
+  </x:si>
+  <x:si>
     <x:t>./img/beans_l_013.jpg</x:t>
   </x:si>
   <x:si>
-    <x:t>./img/beans_l_011.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_012.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_013.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_012.jpg</x:t>
-  </x:si>
-  <x:si>
     <x:t>./img/beans_l_016.jpg</x:t>
   </x:si>
   <x:si>
+    <x:t>./img/beans_l_014.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_011.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_014.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_017.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_015.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_017.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_016.jpg</x:t>
+  </x:si>
+  <x:si>
     <x:t>./img/beans_l_015.jpg</x:t>
   </x:si>
   <x:si>
-    <x:t>./img/beans_l_017.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_014.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_016.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_011.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_014.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_017.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_015.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>撲鼻而來的是草莓果醬、濃郁木瓜牛奶、帶有起司的濃郁、及優格。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>麥芽糖及焦糖甜感，低溫出現柔和的果酸，每個溫層的變化豐富。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>細緻的花香、酸梅汁般的酸甜感，降溫之後出現深色莓果的風味。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>奶油白花的前段香味，葡萄、桃子等水果風味，帶有滑順的口感。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>在深焙的烘焙程度下，帶出豐厚的油脂感，烤堅果和可可的苦甜。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>成熟蘋果、黑醋栗等深色水果、些許肉桂、奶油和香檳的尾韻。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>在溫度稍微下降，哈密瓜精緻的風味出現，整體清爽、酸值迷人。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>柑橘和紅色莓果的風味，水果酸值明亮。降溫後紅糖的尾韻延續。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>黑櫻桃、葡萄柚、可可粉、降溫後出現芭樂、綜合蔬果汁風味。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>烤堅果為主軸，伴隨著麥芽糖的清甜感，茶的綿長尾韻，清爽細膩。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>綿延的肉桂香氣是整體的風味主軸，尾韻呈現乾淨而溫和的甜感。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>會有強烈的花香氣，飲用時清爽醇厚的口感，尾韻帶著溫帶水果風。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>入口深色莓果和橘皮，最後焦糖及烏龍茶香，口感層次豐富、順口。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>葡萄、果乾、焦糖的甜感，口感乾淨厚實。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>細緻花香、金桔檸檬、葡萄柚的明亮酸甜。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>紅葡萄、楓糖，果汁感，甜感飽滿。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>奶油可可、烤堅果、紅糖、甜感佳。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>香水檸檬、佛手柑的前段香氣，風味強烈。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>柑橘、李子、麥芽糖、有著厚實圓的風味。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>焦糖、柑橘皮、清爽的甜感和茶的尾韻。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>prod_description</x:t>
-  </x:si>
-  <x:si>
-    <x:t>parent_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cat_name</x:t>
+    <x:t>prod_grind</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1577,37 +1577,37 @@
   <x:sheetData>
     <x:row r="1" spans="1:11">
       <x:c r="A1" t="s">
-        <x:v>32</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B1" t="s">
-        <x:v>61</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C1" t="s">
-        <x:v>56</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D1" t="s">
-        <x:v>1</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E1" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="F1" s="1" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="G1" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="H1" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="I1" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="J1" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="K1" t="s">
         <x:v>51</x:v>
-      </x:c>
-      <x:c r="F1" s="1" t="s">
-        <x:v>239</x:v>
-      </x:c>
-      <x:c r="G1" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H1" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="I1" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="J1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K1" t="s">
-        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:11" ht="28.300000000000001">
@@ -1615,31 +1615,31 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" t="s">
-        <x:v>76</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C2" t="s">
-        <x:v>163</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="D2" t="s">
-        <x:v>178</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="E2">
         <x:v>349</x:v>
       </x:c>
       <x:c r="F2" s="1" t="s">
-        <x:v>237</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G2" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="I2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J2" t="s">
         <x:v>29</x:v>
-      </x:c>
-      <x:c r="I2" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="J2" t="s">
-        <x:v>30</x:v>
       </x:c>
       <x:c r="K2">
         <x:v>10</x:v>
@@ -1650,31 +1650,31 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B3" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C3" t="s">
-        <x:v>181</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="D3" t="s">
-        <x:v>196</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="E3">
         <x:v>349</x:v>
       </x:c>
       <x:c r="F3" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="G3" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H3" t="s">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I3" t="s">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J3" t="s">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="K3">
         <x:v>14</x:v>
@@ -1685,31 +1685,31 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B4" t="s">
-        <x:v>50</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C4" t="s">
-        <x:v>183</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="D4" t="s">
-        <x:v>195</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="E4">
         <x:v>379</x:v>
       </x:c>
       <x:c r="F4" s="1" t="s">
-        <x:v>179</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="G4" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H4" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I4" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J4" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K4">
         <x:v>17</x:v>
@@ -1720,31 +1720,31 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B5" t="s">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C5" t="s">
-        <x:v>202</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="D5" t="s">
-        <x:v>201</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="E5">
         <x:v>399</x:v>
       </x:c>
       <x:c r="F5" s="1" t="s">
-        <x:v>238</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G5" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="H5" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="H5" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
       <x:c r="I5" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J5" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="K5">
         <x:v>20</x:v>
@@ -1755,31 +1755,31 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B6" t="s">
-        <x:v>71</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C6" t="s">
-        <x:v>198</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="D6" t="s">
-        <x:v>190</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="E6">
         <x:v>1399</x:v>
       </x:c>
       <x:c r="F6" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="G6" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H6" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I6" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J6" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K6">
         <x:v>11</x:v>
@@ -1790,31 +1790,31 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B7" t="s">
-        <x:v>23</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C7" t="s">
-        <x:v>191</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="D7" t="s">
-        <x:v>197</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="E7">
         <x:v>669</x:v>
       </x:c>
       <x:c r="F7" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="G7" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H7" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I7" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J7" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="K7">
         <x:v>13</x:v>
@@ -1825,31 +1825,31 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B8" t="s">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C8" t="s">
-        <x:v>187</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="D8" t="s">
-        <x:v>199</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="E8">
         <x:v>569</x:v>
       </x:c>
       <x:c r="F8" s="1" t="s">
-        <x:v>227</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="G8" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H8" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I8" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J8" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="K8">
         <x:v>17</x:v>
@@ -1860,31 +1860,31 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B9" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C9" t="s">
-        <x:v>188</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="D9" t="s">
-        <x:v>194</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="E9">
         <x:v>669</x:v>
       </x:c>
       <x:c r="F9" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="G9" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H9" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I9" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J9" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="K9">
         <x:v>22</x:v>
@@ -1895,31 +1895,31 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B10" t="s">
-        <x:v>72</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C10" t="s">
-        <x:v>204</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="D10" t="s">
-        <x:v>193</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="E10">
         <x:v>599</x:v>
       </x:c>
       <x:c r="F10" s="1" t="s">
-        <x:v>224</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="G10" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H10" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I10" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J10" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="K10">
         <x:v>10</x:v>
@@ -1930,31 +1930,31 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B11" t="s">
-        <x:v>84</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C11" t="s">
-        <x:v>192</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="D11" t="s">
-        <x:v>203</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="E11">
         <x:v>439</x:v>
       </x:c>
       <x:c r="F11" s="1" t="s">
-        <x:v>226</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="G11" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H11" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I11" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J11" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="K11">
         <x:v>14</x:v>
@@ -1965,31 +1965,31 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B12" t="s">
-        <x:v>69</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C12" t="s">
-        <x:v>206</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="D12" t="s">
-        <x:v>215</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="E12">
         <x:v>519</x:v>
       </x:c>
       <x:c r="F12" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G12" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H12" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I12" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J12" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K12">
         <x:v>16</x:v>
@@ -2000,31 +2000,31 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B13" t="s">
-        <x:v>68</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C13" t="s">
-        <x:v>209</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="D13" t="s">
-        <x:v>207</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E13">
         <x:v>519</x:v>
       </x:c>
       <x:c r="F13" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="G13" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H13" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I13" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J13" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="K13">
         <x:v>21</x:v>
@@ -2035,31 +2035,31 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B14" t="s">
-        <x:v>49</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C14" t="s">
-        <x:v>205</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="D14" t="s">
-        <x:v>208</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="E14">
         <x:v>519</x:v>
       </x:c>
       <x:c r="F14" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="G14" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H14" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I14" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J14" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K14">
         <x:v>11</x:v>
@@ -2070,31 +2070,31 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B15" t="s">
-        <x:v>55</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C15" t="s">
-        <x:v>213</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="D15" t="s">
-        <x:v>216</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="E15">
         <x:v>549</x:v>
       </x:c>
       <x:c r="F15" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="G15" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H15" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I15" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="J15" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K15">
         <x:v>14</x:v>
@@ -2105,31 +2105,31 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B16" t="s">
-        <x:v>12</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C16" t="s">
-        <x:v>211</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="D16" t="s">
-        <x:v>218</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="E16">
         <x:v>339</x:v>
       </x:c>
       <x:c r="F16" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G16" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H16" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I16" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J16" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K16">
         <x:v>17</x:v>
@@ -2140,31 +2140,31 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B17" t="s">
-        <x:v>81</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C17" t="s">
-        <x:v>210</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="D17" t="s">
-        <x:v>214</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="E17">
         <x:v>379</x:v>
       </x:c>
       <x:c r="F17" s="1" t="s">
-        <x:v>228</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="G17" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H17" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I17" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J17" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="K17">
         <x:v>20</x:v>
@@ -2175,31 +2175,31 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B18" t="s">
-        <x:v>85</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C18" t="s">
-        <x:v>212</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="D18" t="s">
-        <x:v>217</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="E18">
         <x:v>369</x:v>
       </x:c>
       <x:c r="F18" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="G18" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H18" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="I18" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="J18" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="K18">
         <x:v>9</x:v>
@@ -2210,31 +2210,31 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B19" t="s">
-        <x:v>24</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C19" t="s">
-        <x:v>120</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D19" t="s">
-        <x:v>122</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="E19">
         <x:v>329</x:v>
       </x:c>
       <x:c r="F19" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G19" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H19" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="I19" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="J19" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K19">
         <x:v>13</x:v>
@@ -2245,31 +2245,31 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="B20" t="s">
-        <x:v>52</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C20" t="s">
-        <x:v>124</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="D20" t="s">
-        <x:v>131</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E20">
         <x:v>499</x:v>
       </x:c>
       <x:c r="F20" s="1" t="s">
-        <x:v>234</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G20" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H20" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I20" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J20" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K20">
         <x:v>16</x:v>
@@ -2280,31 +2280,31 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B21" t="s">
-        <x:v>15</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C21" t="s">
-        <x:v>110</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="D21" t="s">
-        <x:v>119</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="E21">
         <x:v>469</x:v>
       </x:c>
       <x:c r="F21" s="1" t="s">
-        <x:v>233</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G21" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H21" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I21" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J21" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K21">
         <x:v>20</x:v>
@@ -2315,31 +2315,31 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B22" t="s">
-        <x:v>79</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C22" t="s">
-        <x:v>118</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="D22" t="s">
-        <x:v>117</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="E22">
         <x:v>469</x:v>
       </x:c>
       <x:c r="F22" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G22" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H22" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="I22" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J22" s="2" t="s">
         <x:v>29</x:v>
-      </x:c>
-      <x:c r="I22" s="2" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="J22" s="2" t="s">
-        <x:v>30</x:v>
       </x:c>
       <x:c r="K22">
         <x:v>9</x:v>
@@ -2350,31 +2350,31 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B23" t="s">
-        <x:v>75</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C23" t="s">
-        <x:v>129</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="D23" t="s">
-        <x:v>121</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="E23">
         <x:v>499</x:v>
       </x:c>
       <x:c r="F23" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="G23" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H23" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I23" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J23" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K23">
         <x:v>13</x:v>
@@ -2385,31 +2385,31 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B24" t="s">
-        <x:v>21</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C24" t="s">
-        <x:v>113</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D24" t="s">
-        <x:v>111</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="E24">
         <x:v>499</x:v>
       </x:c>
       <x:c r="F24" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="G24" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H24" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I24" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J24" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="K24">
         <x:v>18</x:v>
@@ -2420,31 +2420,31 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B25" t="s">
-        <x:v>64</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C25" t="s">
-        <x:v>128</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D25" t="s">
-        <x:v>130</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="E25">
         <x:v>499</x:v>
       </x:c>
       <x:c r="F25" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="G25" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H25" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I25" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J25" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="K25">
         <x:v>20</x:v>
@@ -2455,31 +2455,31 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="B26" t="s">
-        <x:v>62</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C26" t="s">
-        <x:v>114</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="D26" t="s">
-        <x:v>123</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="E26">
         <x:v>519</x:v>
       </x:c>
       <x:c r="F26" s="1" t="s">
-        <x:v>222</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="G26" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H26" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I26" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J26" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="K26">
         <x:v>10</x:v>
@@ -2490,31 +2490,31 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="B27" t="s">
-        <x:v>53</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C27" t="s">
-        <x:v>125</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D27" t="s">
-        <x:v>127</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="E27">
         <x:v>539</x:v>
       </x:c>
       <x:c r="F27" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="G27" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H27" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I27" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J27" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="K27">
         <x:v>13</x:v>
@@ -2525,31 +2525,31 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B28" t="s">
-        <x:v>18</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C28" t="s">
-        <x:v>115</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="D28" t="s">
-        <x:v>112</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="E28">
         <x:v>899</x:v>
       </x:c>
       <x:c r="F28" s="1" t="s">
-        <x:v>229</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="G28" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H28" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I28" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J28" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="K28">
         <x:v>18</x:v>
@@ -2560,31 +2560,31 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="B29" t="s">
-        <x:v>19</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C29" t="s">
-        <x:v>132</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="D29" t="s">
-        <x:v>156</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="E29">
         <x:v>429</x:v>
       </x:c>
       <x:c r="F29" s="1" t="s">
-        <x:v>229</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="G29" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H29" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="I29" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J29" s="2" t="s">
         <x:v>29</x:v>
-      </x:c>
-      <x:c r="I29" s="2" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="J29" s="2" t="s">
-        <x:v>30</x:v>
       </x:c>
       <x:c r="K29">
         <x:v>20</x:v>
@@ -2595,31 +2595,31 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="B30" t="s">
-        <x:v>22</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C30" t="s">
-        <x:v>126</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="D30" t="s">
-        <x:v>141</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="E30">
         <x:v>399</x:v>
       </x:c>
       <x:c r="F30" s="1" t="s">
-        <x:v>223</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="G30" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H30" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="I30" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J30" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="K30">
         <x:v>9</x:v>
@@ -2630,31 +2630,31 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B31" t="s">
-        <x:v>25</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C31" t="s">
-        <x:v>150</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D31" t="s">
-        <x:v>153</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E31">
         <x:v>449</x:v>
       </x:c>
       <x:c r="F31" s="1" t="s">
-        <x:v>220</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="G31" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H31" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I31" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J31" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="K31">
         <x:v>13</x:v>
@@ -2665,31 +2665,31 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="B32" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C32" t="s">
-        <x:v>159</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="D32" t="s">
-        <x:v>148</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="E32">
         <x:v>449</x:v>
       </x:c>
       <x:c r="F32" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="G32" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H32" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I32" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J32" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="K32">
         <x:v>18</x:v>
@@ -2700,31 +2700,31 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="B33" t="s">
-        <x:v>86</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C33" t="s">
-        <x:v>155</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="D33" t="s">
-        <x:v>134</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="E33">
         <x:v>349</x:v>
       </x:c>
       <x:c r="F33" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="G33" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H33" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="I33" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J33" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="K33">
         <x:v>21</x:v>
@@ -2735,31 +2735,31 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B34" t="s">
-        <x:v>77</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C34" t="s">
-        <x:v>151</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D34" t="s">
-        <x:v>161</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="E34">
         <x:v>379</x:v>
       </x:c>
       <x:c r="F34" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="G34" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H34" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="I34" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J34" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K34">
         <x:v>10</x:v>
@@ -2770,31 +2770,31 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="B35" t="s">
-        <x:v>59</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C35" t="s">
-        <x:v>144</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="D35" t="s">
-        <x:v>147</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="E35">
         <x:v>1198</x:v>
       </x:c>
       <x:c r="F35" s="1" t="s">
-        <x:v>225</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="G35" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H35" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I35" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J35" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K35">
         <x:v>13</x:v>
@@ -2805,31 +2805,31 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="B36" t="s">
-        <x:v>106</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C36" t="s">
-        <x:v>172</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="D36" t="s">
-        <x:v>136</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="E36">
         <x:v>950</x:v>
       </x:c>
       <x:c r="F36" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="G36" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H36" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="I36" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J36" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K36">
         <x:v>18</x:v>
@@ -2840,31 +2840,31 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="B37" t="s">
-        <x:v>67</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C37" t="s">
-        <x:v>139</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="D37" t="s">
-        <x:v>157</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="E37">
         <x:v>918</x:v>
       </x:c>
       <x:c r="F37" s="1" t="s">
-        <x:v>219</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="G37" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H37" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I37" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J37" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="K37">
         <x:v>21</x:v>
@@ -2875,31 +2875,31 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="B38" t="s">
-        <x:v>80</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C38" t="s">
-        <x:v>143</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="D38" t="s">
-        <x:v>138</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E38">
         <x:v>798</x:v>
       </x:c>
       <x:c r="F38" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="G38" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H38" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I38" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J38" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="K38">
         <x:v>9</x:v>
@@ -2910,31 +2910,31 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="B39" t="s">
-        <x:v>48</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C39" t="s">
-        <x:v>137</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="D39" t="s">
-        <x:v>160</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E39">
         <x:v>499</x:v>
       </x:c>
       <x:c r="F39" s="1" t="s">
-        <x:v>232</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="G39" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H39" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I39" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J39" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="K39">
         <x:v>14</x:v>
@@ -2945,31 +2945,31 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="B40" t="s">
-        <x:v>57</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C40" t="s">
-        <x:v>142</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="D40" t="s">
-        <x:v>152</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="E40">
         <x:v>538</x:v>
       </x:c>
       <x:c r="F40" s="1" t="s">
-        <x:v>231</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="G40" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H40" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I40" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J40" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="K40">
         <x:v>18</x:v>
@@ -2980,31 +2980,31 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="B41" t="s">
-        <x:v>54</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C41" t="s">
-        <x:v>154</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="D41" t="s">
-        <x:v>149</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="E41">
         <x:v>598</x:v>
       </x:c>
       <x:c r="F41" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="G41" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H41" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I41" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J41" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K41">
         <x:v>20</x:v>
@@ -3015,31 +3015,31 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="B42" t="s">
-        <x:v>58</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C42" t="s">
-        <x:v>133</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="D42" t="s">
-        <x:v>135</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E42">
         <x:v>598</x:v>
       </x:c>
       <x:c r="F42" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="G42" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H42" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I42" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J42" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K42">
         <x:v>9</x:v>
@@ -3050,31 +3050,31 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="B43" t="s">
-        <x:v>82</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C43" t="s">
-        <x:v>168</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="D43" t="s">
-        <x:v>146</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="E43">
         <x:v>469</x:v>
       </x:c>
       <x:c r="F43" s="1" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="G43" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H43" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I43" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J43" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="K43">
         <x:v>14</x:v>
@@ -3088,28 +3088,28 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="C44" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D44" t="s">
-        <x:v>167</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="E44">
         <x:v>499</x:v>
       </x:c>
       <x:c r="F44" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="G44" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H44" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I44" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J44" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K44">
         <x:v>16</x:v>
@@ -3120,31 +3120,31 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="B45" t="s">
-        <x:v>38</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C45" t="s">
-        <x:v>173</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="D45" t="s">
-        <x:v>184</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E45">
         <x:v>579</x:v>
       </x:c>
       <x:c r="F45" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="G45" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H45" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I45" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J45" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="K45">
         <x:v>20</x:v>
@@ -3155,31 +3155,31 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="B46" t="s">
-        <x:v>70</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C46" t="s">
-        <x:v>176</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D46" t="s">
-        <x:v>185</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E46">
         <x:v>1399</x:v>
       </x:c>
       <x:c r="F46" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G46" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H46" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I46" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J46" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="K46">
         <x:v>9</x:v>
@@ -3190,31 +3190,31 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="B47" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C47" t="s">
-        <x:v>164</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="D47" t="s">
-        <x:v>171</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="E47">
         <x:v>449</x:v>
       </x:c>
       <x:c r="F47" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="G47" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H47" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I47" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J47" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="K47">
         <x:v>14</x:v>
@@ -3225,31 +3225,31 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="B48" t="s">
-        <x:v>60</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C48" t="s">
-        <x:v>186</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="D48" t="s">
-        <x:v>180</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="E48">
         <x:v>759</x:v>
       </x:c>
       <x:c r="F48" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="G48" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H48" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I48" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J48" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="K48">
         <x:v>17</x:v>
@@ -3260,31 +3260,31 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="B49" t="s">
-        <x:v>31</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C49" t="s">
-        <x:v>174</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="D49" t="s">
-        <x:v>166</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="E49">
         <x:v>599</x:v>
       </x:c>
       <x:c r="F49" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G49" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H49" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I49" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J49" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="K49">
         <x:v>20</x:v>
@@ -3295,31 +3295,31 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="B50" t="s">
-        <x:v>78</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C50" t="s">
-        <x:v>175</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="D50" t="s">
-        <x:v>165</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="E50">
         <x:v>599</x:v>
       </x:c>
       <x:c r="F50" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="G50" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H50" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I50" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J50" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K50">
         <x:v>9</x:v>
@@ -3330,38 +3330,38 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="B51" t="s">
-        <x:v>39</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C51" t="s">
-        <x:v>177</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="D51" t="s">
-        <x:v>169</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="E51">
         <x:v>399</x:v>
       </x:c>
       <x:c r="F51" s="1" t="s">
-        <x:v>235</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G51" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H51" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I51" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J51" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="K51">
         <x:v>13</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -3372,7 +3372,7 @@
   <x:dimension ref="A1:B151"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A12" activeCellId="0" sqref="A12:A12"/>
+      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.66015625" defaultRowHeight="14.15"/>
@@ -3383,15 +3383,15 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" t="s">
-        <x:v>47</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B1" t="s">
-        <x:v>74</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B2">
         <x:v>1</x:v>
@@ -3399,7 +3399,7 @@
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" t="s">
-        <x:v>27</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B3">
         <x:v>1</x:v>
@@ -3407,7 +3407,7 @@
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" t="s">
-        <x:v>83</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B4">
         <x:v>1</x:v>
@@ -3415,7 +3415,7 @@
     </x:row>
     <x:row r="5" spans="1:2">
       <x:c r="A5" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B5">
         <x:v>2</x:v>
@@ -3423,7 +3423,7 @@
     </x:row>
     <x:row r="6" spans="1:2">
       <x:c r="A6" t="s">
-        <x:v>27</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B6">
         <x:v>2</x:v>
@@ -3431,7 +3431,7 @@
     </x:row>
     <x:row r="7" spans="1:2">
       <x:c r="A7" t="s">
-        <x:v>83</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B7">
         <x:v>2</x:v>
@@ -3439,7 +3439,7 @@
     </x:row>
     <x:row r="8" spans="1:2">
       <x:c r="A8" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B8">
         <x:v>3</x:v>
@@ -3447,7 +3447,7 @@
     </x:row>
     <x:row r="9" spans="1:2">
       <x:c r="A9" t="s">
-        <x:v>27</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B9">
         <x:v>3</x:v>
@@ -3455,7 +3455,7 @@
     </x:row>
     <x:row r="10" spans="1:2">
       <x:c r="A10" t="s">
-        <x:v>83</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B10">
         <x:v>3</x:v>
@@ -3463,7 +3463,7 @@
     </x:row>
     <x:row r="11" spans="1:2">
       <x:c r="A11" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B11">
         <x:v>4</x:v>
@@ -3471,7 +3471,7 @@
     </x:row>
     <x:row r="12" spans="1:2">
       <x:c r="A12" t="s">
-        <x:v>27</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B12">
         <x:v>4</x:v>
@@ -3479,7 +3479,7 @@
     </x:row>
     <x:row r="13" spans="1:2">
       <x:c r="A13" t="s">
-        <x:v>83</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B13">
         <x:v>4</x:v>
@@ -3487,7 +3487,7 @@
     </x:row>
     <x:row r="14" spans="1:2">
       <x:c r="A14" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B14">
         <x:v>5</x:v>
@@ -3495,7 +3495,7 @@
     </x:row>
     <x:row r="15" spans="1:2">
       <x:c r="A15" t="s">
-        <x:v>27</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B15">
         <x:v>5</x:v>
@@ -3503,7 +3503,7 @@
     </x:row>
     <x:row r="16" spans="1:2">
       <x:c r="A16" t="s">
-        <x:v>83</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B16">
         <x:v>5</x:v>
@@ -3511,7 +3511,7 @@
     </x:row>
     <x:row r="17" spans="1:2">
       <x:c r="A17" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B17">
         <x:v>6</x:v>
@@ -3519,7 +3519,7 @@
     </x:row>
     <x:row r="18" spans="1:2">
       <x:c r="A18" t="s">
-        <x:v>27</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B18">
         <x:v>6</x:v>
@@ -3527,7 +3527,7 @@
     </x:row>
     <x:row r="19" spans="1:2">
       <x:c r="A19" t="s">
-        <x:v>83</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B19">
         <x:v>6</x:v>
@@ -3535,7 +3535,7 @@
     </x:row>
     <x:row r="20" spans="1:2">
       <x:c r="A20" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B20">
         <x:v>7</x:v>
@@ -3543,7 +3543,7 @@
     </x:row>
     <x:row r="21" spans="1:2">
       <x:c r="A21" t="s">
-        <x:v>27</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B21">
         <x:v>7</x:v>
@@ -3551,7 +3551,7 @@
     </x:row>
     <x:row r="22" spans="1:2">
       <x:c r="A22" t="s">
-        <x:v>83</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B22">
         <x:v>7</x:v>
@@ -3559,7 +3559,7 @@
     </x:row>
     <x:row r="23" spans="1:2">
       <x:c r="A23" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B23">
         <x:v>8</x:v>
@@ -3567,7 +3567,7 @@
     </x:row>
     <x:row r="24" spans="1:2">
       <x:c r="A24" t="s">
-        <x:v>27</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B24">
         <x:v>8</x:v>
@@ -3575,7 +3575,7 @@
     </x:row>
     <x:row r="25" spans="1:2">
       <x:c r="A25" t="s">
-        <x:v>83</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B25">
         <x:v>8</x:v>
@@ -3583,7 +3583,7 @@
     </x:row>
     <x:row r="26" spans="1:2">
       <x:c r="A26" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B26">
         <x:v>9</x:v>
@@ -3591,7 +3591,7 @@
     </x:row>
     <x:row r="27" spans="1:2">
       <x:c r="A27" t="s">
-        <x:v>27</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B27">
         <x:v>9</x:v>
@@ -3599,7 +3599,7 @@
     </x:row>
     <x:row r="28" spans="1:2">
       <x:c r="A28" t="s">
-        <x:v>83</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B28">
         <x:v>9</x:v>
@@ -3607,7 +3607,7 @@
     </x:row>
     <x:row r="29" spans="1:2">
       <x:c r="A29" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B29">
         <x:v>10</x:v>
@@ -3615,7 +3615,7 @@
     </x:row>
     <x:row r="30" spans="1:2">
       <x:c r="A30" t="s">
-        <x:v>27</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B30">
         <x:v>10</x:v>
@@ -3623,7 +3623,7 @@
     </x:row>
     <x:row r="31" spans="1:2">
       <x:c r="A31" t="s">
-        <x:v>83</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B31">
         <x:v>10</x:v>
@@ -3631,7 +3631,7 @@
     </x:row>
     <x:row r="32" spans="1:2">
       <x:c r="A32" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B32">
         <x:v>11</x:v>
@@ -3639,7 +3639,7 @@
     </x:row>
     <x:row r="33" spans="1:2">
       <x:c r="A33" t="s">
-        <x:v>27</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B33">
         <x:v>11</x:v>
@@ -3647,7 +3647,7 @@
     </x:row>
     <x:row r="34" spans="1:2">
       <x:c r="A34" t="s">
-        <x:v>83</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B34">
         <x:v>11</x:v>
@@ -3655,7 +3655,7 @@
     </x:row>
     <x:row r="35" spans="1:2">
       <x:c r="A35" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B35">
         <x:v>12</x:v>
@@ -3663,7 +3663,7 @@
     </x:row>
     <x:row r="36" spans="1:2">
       <x:c r="A36" t="s">
-        <x:v>27</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B36">
         <x:v>12</x:v>
@@ -3671,7 +3671,7 @@
     </x:row>
     <x:row r="37" spans="1:2">
       <x:c r="A37" t="s">
-        <x:v>83</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B37">
         <x:v>12</x:v>
@@ -3679,7 +3679,7 @@
     </x:row>
     <x:row r="38" spans="1:2">
       <x:c r="A38" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B38">
         <x:v>13</x:v>
@@ -3687,7 +3687,7 @@
     </x:row>
     <x:row r="39" spans="1:2">
       <x:c r="A39" t="s">
-        <x:v>27</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B39">
         <x:v>13</x:v>
@@ -3695,7 +3695,7 @@
     </x:row>
     <x:row r="40" spans="1:2">
       <x:c r="A40" t="s">
-        <x:v>83</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B40">
         <x:v>13</x:v>
@@ -3703,7 +3703,7 @@
     </x:row>
     <x:row r="41" spans="1:2">
       <x:c r="A41" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B41">
         <x:v>14</x:v>
@@ -3711,7 +3711,7 @@
     </x:row>
     <x:row r="42" spans="1:2">
       <x:c r="A42" t="s">
-        <x:v>27</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B42">
         <x:v>14</x:v>
@@ -3719,7 +3719,7 @@
     </x:row>
     <x:row r="43" spans="1:2">
       <x:c r="A43" t="s">
-        <x:v>83</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B43">
         <x:v>14</x:v>
@@ -3727,7 +3727,7 @@
     </x:row>
     <x:row r="44" spans="1:2">
       <x:c r="A44" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B44">
         <x:v>15</x:v>
@@ -3735,7 +3735,7 @@
     </x:row>
     <x:row r="45" spans="1:2">
       <x:c r="A45" t="s">
-        <x:v>27</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B45">
         <x:v>15</x:v>
@@ -3743,7 +3743,7 @@
     </x:row>
     <x:row r="46" spans="1:2">
       <x:c r="A46" t="s">
-        <x:v>83</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B46">
         <x:v>15</x:v>
@@ -3751,7 +3751,7 @@
     </x:row>
     <x:row r="47" spans="1:2">
       <x:c r="A47" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B47">
         <x:v>16</x:v>
@@ -3759,7 +3759,7 @@
     </x:row>
     <x:row r="48" spans="1:2">
       <x:c r="A48" t="s">
-        <x:v>27</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B48">
         <x:v>16</x:v>
@@ -3767,7 +3767,7 @@
     </x:row>
     <x:row r="49" spans="1:2">
       <x:c r="A49" t="s">
-        <x:v>83</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B49">
         <x:v>16</x:v>
@@ -3775,7 +3775,7 @@
     </x:row>
     <x:row r="50" spans="1:2">
       <x:c r="A50" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B50">
         <x:v>17</x:v>
@@ -3783,7 +3783,7 @@
     </x:row>
     <x:row r="51" spans="1:2">
       <x:c r="A51" t="s">
-        <x:v>27</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B51">
         <x:v>17</x:v>
@@ -3791,7 +3791,7 @@
     </x:row>
     <x:row r="52" spans="1:2">
       <x:c r="A52" t="s">
-        <x:v>83</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B52">
         <x:v>17</x:v>
@@ -3799,7 +3799,7 @@
     </x:row>
     <x:row r="53" spans="1:2">
       <x:c r="A53" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B53">
         <x:v>18</x:v>
@@ -3807,7 +3807,7 @@
     </x:row>
     <x:row r="54" spans="1:2">
       <x:c r="A54" t="s">
-        <x:v>27</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B54">
         <x:v>18</x:v>
@@ -3815,7 +3815,7 @@
     </x:row>
     <x:row r="55" spans="1:2">
       <x:c r="A55" t="s">
-        <x:v>83</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B55">
         <x:v>18</x:v>
@@ -3823,7 +3823,7 @@
     </x:row>
     <x:row r="56" spans="1:2">
       <x:c r="A56" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B56">
         <x:v>19</x:v>
@@ -3831,7 +3831,7 @@
     </x:row>
     <x:row r="57" spans="1:2">
       <x:c r="A57" t="s">
-        <x:v>27</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B57">
         <x:v>19</x:v>
@@ -3839,7 +3839,7 @@
     </x:row>
     <x:row r="58" spans="1:2">
       <x:c r="A58" t="s">
-        <x:v>83</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B58">
         <x:v>19</x:v>
@@ -3847,7 +3847,7 @@
     </x:row>
     <x:row r="59" spans="1:2">
       <x:c r="A59" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B59">
         <x:v>20</x:v>
@@ -3855,7 +3855,7 @@
     </x:row>
     <x:row r="60" spans="1:2">
       <x:c r="A60" t="s">
-        <x:v>27</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B60">
         <x:v>20</x:v>
@@ -3863,7 +3863,7 @@
     </x:row>
     <x:row r="61" spans="1:2">
       <x:c r="A61" t="s">
-        <x:v>83</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B61">
         <x:v>20</x:v>
@@ -3871,7 +3871,7 @@
     </x:row>
     <x:row r="62" spans="1:2">
       <x:c r="A62" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B62">
         <x:v>21</x:v>
@@ -3879,7 +3879,7 @@
     </x:row>
     <x:row r="63" spans="1:2">
       <x:c r="A63" t="s">
-        <x:v>27</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B63">
         <x:v>21</x:v>
@@ -3887,7 +3887,7 @@
     </x:row>
     <x:row r="64" spans="1:2">
       <x:c r="A64" t="s">
-        <x:v>83</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B64">
         <x:v>21</x:v>
@@ -3895,7 +3895,7 @@
     </x:row>
     <x:row r="65" spans="1:2">
       <x:c r="A65" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B65">
         <x:v>22</x:v>
@@ -3903,7 +3903,7 @@
     </x:row>
     <x:row r="66" spans="1:2">
       <x:c r="A66" t="s">
-        <x:v>27</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B66">
         <x:v>22</x:v>
@@ -3911,7 +3911,7 @@
     </x:row>
     <x:row r="67" spans="1:2">
       <x:c r="A67" t="s">
-        <x:v>83</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B67">
         <x:v>22</x:v>
@@ -3919,7 +3919,7 @@
     </x:row>
     <x:row r="68" spans="1:2">
       <x:c r="A68" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B68">
         <x:v>23</x:v>
@@ -3927,7 +3927,7 @@
     </x:row>
     <x:row r="69" spans="1:2">
       <x:c r="A69" t="s">
-        <x:v>27</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B69">
         <x:v>23</x:v>
@@ -3935,7 +3935,7 @@
     </x:row>
     <x:row r="70" spans="1:2">
       <x:c r="A70" t="s">
-        <x:v>83</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B70">
         <x:v>23</x:v>
@@ -3943,7 +3943,7 @@
     </x:row>
     <x:row r="71" spans="1:2">
       <x:c r="A71" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B71">
         <x:v>24</x:v>
@@ -3951,7 +3951,7 @@
     </x:row>
     <x:row r="72" spans="1:2">
       <x:c r="A72" t="s">
-        <x:v>27</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B72">
         <x:v>24</x:v>
@@ -3959,7 +3959,7 @@
     </x:row>
     <x:row r="73" spans="1:2">
       <x:c r="A73" t="s">
-        <x:v>83</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B73">
         <x:v>24</x:v>
@@ -3967,7 +3967,7 @@
     </x:row>
     <x:row r="74" spans="1:2">
       <x:c r="A74" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B74">
         <x:v>25</x:v>
@@ -3975,7 +3975,7 @@
     </x:row>
     <x:row r="75" spans="1:2">
       <x:c r="A75" t="s">
-        <x:v>27</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B75">
         <x:v>25</x:v>
@@ -3983,7 +3983,7 @@
     </x:row>
     <x:row r="76" spans="1:2">
       <x:c r="A76" t="s">
-        <x:v>83</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B76">
         <x:v>25</x:v>
@@ -3991,7 +3991,7 @@
     </x:row>
     <x:row r="77" spans="1:2">
       <x:c r="A77" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B77">
         <x:v>26</x:v>
@@ -3999,7 +3999,7 @@
     </x:row>
     <x:row r="78" spans="1:2">
       <x:c r="A78" t="s">
-        <x:v>27</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B78">
         <x:v>26</x:v>
@@ -4007,7 +4007,7 @@
     </x:row>
     <x:row r="79" spans="1:2">
       <x:c r="A79" t="s">
-        <x:v>83</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B79">
         <x:v>26</x:v>
@@ -4015,7 +4015,7 @@
     </x:row>
     <x:row r="80" spans="1:2">
       <x:c r="A80" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B80">
         <x:v>27</x:v>
@@ -4023,7 +4023,7 @@
     </x:row>
     <x:row r="81" spans="1:2">
       <x:c r="A81" t="s">
-        <x:v>27</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B81">
         <x:v>27</x:v>
@@ -4031,7 +4031,7 @@
     </x:row>
     <x:row r="82" spans="1:2">
       <x:c r="A82" t="s">
-        <x:v>83</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B82">
         <x:v>27</x:v>
@@ -4039,7 +4039,7 @@
     </x:row>
     <x:row r="83" spans="1:2">
       <x:c r="A83" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B83">
         <x:v>28</x:v>
@@ -4047,7 +4047,7 @@
     </x:row>
     <x:row r="84" spans="1:2">
       <x:c r="A84" t="s">
-        <x:v>27</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B84">
         <x:v>28</x:v>
@@ -4055,7 +4055,7 @@
     </x:row>
     <x:row r="85" spans="1:2">
       <x:c r="A85" t="s">
-        <x:v>83</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B85">
         <x:v>28</x:v>
@@ -4063,7 +4063,7 @@
     </x:row>
     <x:row r="86" spans="1:2">
       <x:c r="A86" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B86">
         <x:v>29</x:v>
@@ -4071,7 +4071,7 @@
     </x:row>
     <x:row r="87" spans="1:2">
       <x:c r="A87" t="s">
-        <x:v>27</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B87">
         <x:v>29</x:v>
@@ -4079,7 +4079,7 @@
     </x:row>
     <x:row r="88" spans="1:2">
       <x:c r="A88" t="s">
-        <x:v>83</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B88">
         <x:v>29</x:v>
@@ -4087,7 +4087,7 @@
     </x:row>
     <x:row r="89" spans="1:2">
       <x:c r="A89" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B89">
         <x:v>30</x:v>
@@ -4095,7 +4095,7 @@
     </x:row>
     <x:row r="90" spans="1:2">
       <x:c r="A90" t="s">
-        <x:v>27</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B90">
         <x:v>30</x:v>
@@ -4103,7 +4103,7 @@
     </x:row>
     <x:row r="91" spans="1:2">
       <x:c r="A91" t="s">
-        <x:v>83</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B91">
         <x:v>30</x:v>
@@ -4111,7 +4111,7 @@
     </x:row>
     <x:row r="92" spans="1:2">
       <x:c r="A92" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B92">
         <x:v>31</x:v>
@@ -4119,7 +4119,7 @@
     </x:row>
     <x:row r="93" spans="1:2">
       <x:c r="A93" t="s">
-        <x:v>27</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B93">
         <x:v>31</x:v>
@@ -4127,7 +4127,7 @@
     </x:row>
     <x:row r="94" spans="1:2">
       <x:c r="A94" t="s">
-        <x:v>83</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B94">
         <x:v>31</x:v>
@@ -4135,7 +4135,7 @@
     </x:row>
     <x:row r="95" spans="1:2">
       <x:c r="A95" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B95">
         <x:v>32</x:v>
@@ -4143,7 +4143,7 @@
     </x:row>
     <x:row r="96" spans="1:2">
       <x:c r="A96" t="s">
-        <x:v>27</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B96">
         <x:v>32</x:v>
@@ -4151,7 +4151,7 @@
     </x:row>
     <x:row r="97" spans="1:2">
       <x:c r="A97" t="s">
-        <x:v>83</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B97">
         <x:v>32</x:v>
@@ -4159,7 +4159,7 @@
     </x:row>
     <x:row r="98" spans="1:2">
       <x:c r="A98" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B98">
         <x:v>33</x:v>
@@ -4167,7 +4167,7 @@
     </x:row>
     <x:row r="99" spans="1:2">
       <x:c r="A99" t="s">
-        <x:v>27</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B99">
         <x:v>33</x:v>
@@ -4175,7 +4175,7 @@
     </x:row>
     <x:row r="100" spans="1:2">
       <x:c r="A100" t="s">
-        <x:v>83</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B100">
         <x:v>33</x:v>
@@ -4183,7 +4183,7 @@
     </x:row>
     <x:row r="101" spans="1:2">
       <x:c r="A101" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B101">
         <x:v>34</x:v>
@@ -4191,7 +4191,7 @@
     </x:row>
     <x:row r="102" spans="1:2">
       <x:c r="A102" t="s">
-        <x:v>27</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B102">
         <x:v>34</x:v>
@@ -4199,7 +4199,7 @@
     </x:row>
     <x:row r="103" spans="1:2">
       <x:c r="A103" t="s">
-        <x:v>83</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B103">
         <x:v>34</x:v>
@@ -4207,7 +4207,7 @@
     </x:row>
     <x:row r="104" spans="1:2">
       <x:c r="A104" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B104">
         <x:v>35</x:v>
@@ -4215,7 +4215,7 @@
     </x:row>
     <x:row r="105" spans="1:2">
       <x:c r="A105" t="s">
-        <x:v>27</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B105">
         <x:v>35</x:v>
@@ -4223,7 +4223,7 @@
     </x:row>
     <x:row r="106" spans="1:2">
       <x:c r="A106" t="s">
-        <x:v>83</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B106">
         <x:v>35</x:v>
@@ -4231,7 +4231,7 @@
     </x:row>
     <x:row r="107" spans="1:2">
       <x:c r="A107" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B107">
         <x:v>36</x:v>
@@ -4239,7 +4239,7 @@
     </x:row>
     <x:row r="108" spans="1:2">
       <x:c r="A108" t="s">
-        <x:v>27</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B108">
         <x:v>36</x:v>
@@ -4247,7 +4247,7 @@
     </x:row>
     <x:row r="109" spans="1:2">
       <x:c r="A109" t="s">
-        <x:v>83</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B109">
         <x:v>36</x:v>
@@ -4255,7 +4255,7 @@
     </x:row>
     <x:row r="110" spans="1:2">
       <x:c r="A110" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B110">
         <x:v>37</x:v>
@@ -4263,7 +4263,7 @@
     </x:row>
     <x:row r="111" spans="1:2">
       <x:c r="A111" t="s">
-        <x:v>27</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B111">
         <x:v>37</x:v>
@@ -4271,7 +4271,7 @@
     </x:row>
     <x:row r="112" spans="1:2">
       <x:c r="A112" t="s">
-        <x:v>83</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B112">
         <x:v>37</x:v>
@@ -4279,7 +4279,7 @@
     </x:row>
     <x:row r="113" spans="1:2">
       <x:c r="A113" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B113">
         <x:v>38</x:v>
@@ -4287,7 +4287,7 @@
     </x:row>
     <x:row r="114" spans="1:2">
       <x:c r="A114" t="s">
-        <x:v>27</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B114">
         <x:v>38</x:v>
@@ -4295,7 +4295,7 @@
     </x:row>
     <x:row r="115" spans="1:2">
       <x:c r="A115" t="s">
-        <x:v>83</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B115">
         <x:v>38</x:v>
@@ -4303,7 +4303,7 @@
     </x:row>
     <x:row r="116" spans="1:2">
       <x:c r="A116" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B116">
         <x:v>39</x:v>
@@ -4311,7 +4311,7 @@
     </x:row>
     <x:row r="117" spans="1:2">
       <x:c r="A117" t="s">
-        <x:v>27</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B117">
         <x:v>39</x:v>
@@ -4319,7 +4319,7 @@
     </x:row>
     <x:row r="118" spans="1:2">
       <x:c r="A118" t="s">
-        <x:v>83</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B118">
         <x:v>39</x:v>
@@ -4327,7 +4327,7 @@
     </x:row>
     <x:row r="119" spans="1:2">
       <x:c r="A119" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B119">
         <x:v>40</x:v>
@@ -4335,7 +4335,7 @@
     </x:row>
     <x:row r="120" spans="1:2">
       <x:c r="A120" t="s">
-        <x:v>27</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B120">
         <x:v>40</x:v>
@@ -4343,7 +4343,7 @@
     </x:row>
     <x:row r="121" spans="1:2">
       <x:c r="A121" t="s">
-        <x:v>83</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B121">
         <x:v>40</x:v>
@@ -4351,7 +4351,7 @@
     </x:row>
     <x:row r="122" spans="1:2">
       <x:c r="A122" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B122">
         <x:v>41</x:v>
@@ -4359,7 +4359,7 @@
     </x:row>
     <x:row r="123" spans="1:2">
       <x:c r="A123" t="s">
-        <x:v>27</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B123">
         <x:v>41</x:v>
@@ -4367,7 +4367,7 @@
     </x:row>
     <x:row r="124" spans="1:2">
       <x:c r="A124" t="s">
-        <x:v>83</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B124">
         <x:v>41</x:v>
@@ -4375,7 +4375,7 @@
     </x:row>
     <x:row r="125" spans="1:2">
       <x:c r="A125" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B125">
         <x:v>42</x:v>
@@ -4383,7 +4383,7 @@
     </x:row>
     <x:row r="126" spans="1:2">
       <x:c r="A126" t="s">
-        <x:v>27</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B126">
         <x:v>42</x:v>
@@ -4391,7 +4391,7 @@
     </x:row>
     <x:row r="127" spans="1:2">
       <x:c r="A127" t="s">
-        <x:v>83</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B127">
         <x:v>42</x:v>
@@ -4399,7 +4399,7 @@
     </x:row>
     <x:row r="128" spans="1:2">
       <x:c r="A128" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B128">
         <x:v>43</x:v>
@@ -4407,7 +4407,7 @@
     </x:row>
     <x:row r="129" spans="1:2">
       <x:c r="A129" t="s">
-        <x:v>27</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B129">
         <x:v>43</x:v>
@@ -4415,7 +4415,7 @@
     </x:row>
     <x:row r="130" spans="1:2">
       <x:c r="A130" t="s">
-        <x:v>83</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B130">
         <x:v>43</x:v>
@@ -4423,7 +4423,7 @@
     </x:row>
     <x:row r="131" spans="1:2">
       <x:c r="A131" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B131">
         <x:v>44</x:v>
@@ -4431,7 +4431,7 @@
     </x:row>
     <x:row r="132" spans="1:2">
       <x:c r="A132" t="s">
-        <x:v>27</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B132">
         <x:v>44</x:v>
@@ -4439,7 +4439,7 @@
     </x:row>
     <x:row r="133" spans="1:2">
       <x:c r="A133" t="s">
-        <x:v>83</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B133">
         <x:v>44</x:v>
@@ -4447,7 +4447,7 @@
     </x:row>
     <x:row r="134" spans="1:2">
       <x:c r="A134" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B134">
         <x:v>45</x:v>
@@ -4455,7 +4455,7 @@
     </x:row>
     <x:row r="135" spans="1:2">
       <x:c r="A135" t="s">
-        <x:v>27</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B135">
         <x:v>45</x:v>
@@ -4463,7 +4463,7 @@
     </x:row>
     <x:row r="136" spans="1:2">
       <x:c r="A136" t="s">
-        <x:v>83</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B136">
         <x:v>45</x:v>
@@ -4471,7 +4471,7 @@
     </x:row>
     <x:row r="137" spans="1:2">
       <x:c r="A137" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B137">
         <x:v>46</x:v>
@@ -4479,7 +4479,7 @@
     </x:row>
     <x:row r="138" spans="1:2">
       <x:c r="A138" t="s">
-        <x:v>27</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B138">
         <x:v>46</x:v>
@@ -4487,7 +4487,7 @@
     </x:row>
     <x:row r="139" spans="1:2">
       <x:c r="A139" t="s">
-        <x:v>83</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B139">
         <x:v>46</x:v>
@@ -4495,7 +4495,7 @@
     </x:row>
     <x:row r="140" spans="1:2">
       <x:c r="A140" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B140">
         <x:v>47</x:v>
@@ -4503,7 +4503,7 @@
     </x:row>
     <x:row r="141" spans="1:2">
       <x:c r="A141" t="s">
-        <x:v>27</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B141">
         <x:v>47</x:v>
@@ -4511,7 +4511,7 @@
     </x:row>
     <x:row r="142" spans="1:2">
       <x:c r="A142" t="s">
-        <x:v>83</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B142">
         <x:v>47</x:v>
@@ -4519,7 +4519,7 @@
     </x:row>
     <x:row r="143" spans="1:2">
       <x:c r="A143" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B143">
         <x:v>48</x:v>
@@ -4527,7 +4527,7 @@
     </x:row>
     <x:row r="144" spans="1:2">
       <x:c r="A144" t="s">
-        <x:v>27</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B144">
         <x:v>48</x:v>
@@ -4535,7 +4535,7 @@
     </x:row>
     <x:row r="145" spans="1:2">
       <x:c r="A145" t="s">
-        <x:v>83</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B145">
         <x:v>48</x:v>
@@ -4543,7 +4543,7 @@
     </x:row>
     <x:row r="146" spans="1:2">
       <x:c r="A146" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B146">
         <x:v>49</x:v>
@@ -4551,7 +4551,7 @@
     </x:row>
     <x:row r="147" spans="1:2">
       <x:c r="A147" t="s">
-        <x:v>27</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B147">
         <x:v>49</x:v>
@@ -4559,7 +4559,7 @@
     </x:row>
     <x:row r="148" spans="1:2">
       <x:c r="A148" t="s">
-        <x:v>83</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B148">
         <x:v>49</x:v>
@@ -4567,7 +4567,7 @@
     </x:row>
     <x:row r="149" spans="1:2">
       <x:c r="A149" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B149">
         <x:v>50</x:v>
@@ -4575,7 +4575,7 @@
     </x:row>
     <x:row r="150" spans="1:2">
       <x:c r="A150" t="s">
-        <x:v>27</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B150">
         <x:v>50</x:v>
@@ -4583,14 +4583,14 @@
     </x:row>
     <x:row r="151" spans="1:2">
       <x:c r="A151" t="s">
-        <x:v>83</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B151">
         <x:v>50</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -4600,8 +4600,8 @@
   <x:sheetPr codeName="工作表3"/>
   <x:dimension ref="A1:B101"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A73" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A80" activeCellId="0" sqref="A80:A80"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="C7" activeCellId="0" sqref="C7:C7"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.66015625" defaultRowHeight="14.15"/>
@@ -4612,15 +4612,15 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" t="s">
-        <x:v>108</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="B1" t="s">
-        <x:v>74</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B2">
         <x:v>1</x:v>
@@ -4628,7 +4628,7 @@
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B3">
         <x:v>1</x:v>
@@ -4636,7 +4636,7 @@
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B4">
         <x:v>2</x:v>
@@ -4644,7 +4644,7 @@
     </x:row>
     <x:row r="5" spans="1:2">
       <x:c r="A5" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B5">
         <x:v>2</x:v>
@@ -4652,7 +4652,7 @@
     </x:row>
     <x:row r="6" spans="1:2">
       <x:c r="A6" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B6">
         <x:v>3</x:v>
@@ -4660,7 +4660,7 @@
     </x:row>
     <x:row r="7" spans="1:2">
       <x:c r="A7" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B7">
         <x:v>3</x:v>
@@ -4668,7 +4668,7 @@
     </x:row>
     <x:row r="8" spans="1:2">
       <x:c r="A8" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B8">
         <x:v>4</x:v>
@@ -4676,7 +4676,7 @@
     </x:row>
     <x:row r="9" spans="1:2">
       <x:c r="A9" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B9">
         <x:v>4</x:v>
@@ -4684,7 +4684,7 @@
     </x:row>
     <x:row r="10" spans="1:2">
       <x:c r="A10" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B10">
         <x:v>5</x:v>
@@ -4692,7 +4692,7 @@
     </x:row>
     <x:row r="11" spans="1:2">
       <x:c r="A11" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B11">
         <x:v>5</x:v>
@@ -4700,7 +4700,7 @@
     </x:row>
     <x:row r="12" spans="1:2">
       <x:c r="A12" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B12">
         <x:v>6</x:v>
@@ -4708,7 +4708,7 @@
     </x:row>
     <x:row r="13" spans="1:2">
       <x:c r="A13" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B13">
         <x:v>6</x:v>
@@ -4716,7 +4716,7 @@
     </x:row>
     <x:row r="14" spans="1:2">
       <x:c r="A14" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B14">
         <x:v>7</x:v>
@@ -4724,7 +4724,7 @@
     </x:row>
     <x:row r="15" spans="1:2">
       <x:c r="A15" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B15">
         <x:v>7</x:v>
@@ -4732,7 +4732,7 @@
     </x:row>
     <x:row r="16" spans="1:2">
       <x:c r="A16" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B16">
         <x:v>8</x:v>
@@ -4740,7 +4740,7 @@
     </x:row>
     <x:row r="17" spans="1:2">
       <x:c r="A17" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B17">
         <x:v>8</x:v>
@@ -4748,7 +4748,7 @@
     </x:row>
     <x:row r="18" spans="1:2">
       <x:c r="A18" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B18">
         <x:v>9</x:v>
@@ -4756,7 +4756,7 @@
     </x:row>
     <x:row r="19" spans="1:2">
       <x:c r="A19" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B19">
         <x:v>9</x:v>
@@ -4764,7 +4764,7 @@
     </x:row>
     <x:row r="20" spans="1:2">
       <x:c r="A20" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B20">
         <x:v>10</x:v>
@@ -4772,7 +4772,7 @@
     </x:row>
     <x:row r="21" spans="1:2">
       <x:c r="A21" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B21">
         <x:v>10</x:v>
@@ -4780,7 +4780,7 @@
     </x:row>
     <x:row r="22" spans="1:2">
       <x:c r="A22" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B22">
         <x:v>11</x:v>
@@ -4788,7 +4788,7 @@
     </x:row>
     <x:row r="23" spans="1:2">
       <x:c r="A23" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B23">
         <x:v>11</x:v>
@@ -4796,7 +4796,7 @@
     </x:row>
     <x:row r="24" spans="1:2">
       <x:c r="A24" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B24">
         <x:v>12</x:v>
@@ -4804,7 +4804,7 @@
     </x:row>
     <x:row r="25" spans="1:2">
       <x:c r="A25" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B25">
         <x:v>12</x:v>
@@ -4812,7 +4812,7 @@
     </x:row>
     <x:row r="26" spans="1:2">
       <x:c r="A26" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B26">
         <x:v>13</x:v>
@@ -4820,7 +4820,7 @@
     </x:row>
     <x:row r="27" spans="1:2">
       <x:c r="A27" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B27">
         <x:v>13</x:v>
@@ -4828,7 +4828,7 @@
     </x:row>
     <x:row r="28" spans="1:2">
       <x:c r="A28" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B28">
         <x:v>14</x:v>
@@ -4836,7 +4836,7 @@
     </x:row>
     <x:row r="29" spans="1:2">
       <x:c r="A29" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B29">
         <x:v>14</x:v>
@@ -4844,7 +4844,7 @@
     </x:row>
     <x:row r="30" spans="1:2">
       <x:c r="A30" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B30">
         <x:v>15</x:v>
@@ -4852,7 +4852,7 @@
     </x:row>
     <x:row r="31" spans="1:2">
       <x:c r="A31" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B31">
         <x:v>15</x:v>
@@ -4860,7 +4860,7 @@
     </x:row>
     <x:row r="32" spans="1:2">
       <x:c r="A32" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B32">
         <x:v>16</x:v>
@@ -4868,7 +4868,7 @@
     </x:row>
     <x:row r="33" spans="1:2">
       <x:c r="A33" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B33">
         <x:v>16</x:v>
@@ -4876,7 +4876,7 @@
     </x:row>
     <x:row r="34" spans="1:2">
       <x:c r="A34" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B34">
         <x:v>17</x:v>
@@ -4884,7 +4884,7 @@
     </x:row>
     <x:row r="35" spans="1:2">
       <x:c r="A35" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B35">
         <x:v>17</x:v>
@@ -4892,7 +4892,7 @@
     </x:row>
     <x:row r="36" spans="1:2">
       <x:c r="A36" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B36">
         <x:v>18</x:v>
@@ -4900,7 +4900,7 @@
     </x:row>
     <x:row r="37" spans="1:2">
       <x:c r="A37" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B37">
         <x:v>18</x:v>
@@ -4908,7 +4908,7 @@
     </x:row>
     <x:row r="38" spans="1:2">
       <x:c r="A38" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B38">
         <x:v>19</x:v>
@@ -4916,7 +4916,7 @@
     </x:row>
     <x:row r="39" spans="1:2">
       <x:c r="A39" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B39">
         <x:v>19</x:v>
@@ -4924,7 +4924,7 @@
     </x:row>
     <x:row r="40" spans="1:2">
       <x:c r="A40" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B40">
         <x:v>20</x:v>
@@ -4932,7 +4932,7 @@
     </x:row>
     <x:row r="41" spans="1:2">
       <x:c r="A41" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B41">
         <x:v>20</x:v>
@@ -4940,7 +4940,7 @@
     </x:row>
     <x:row r="42" spans="1:2">
       <x:c r="A42" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B42">
         <x:v>21</x:v>
@@ -4948,7 +4948,7 @@
     </x:row>
     <x:row r="43" spans="1:2">
       <x:c r="A43" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B43">
         <x:v>21</x:v>
@@ -4956,7 +4956,7 @@
     </x:row>
     <x:row r="44" spans="1:2">
       <x:c r="A44" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B44">
         <x:v>22</x:v>
@@ -4964,7 +4964,7 @@
     </x:row>
     <x:row r="45" spans="1:2">
       <x:c r="A45" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B45">
         <x:v>22</x:v>
@@ -4972,7 +4972,7 @@
     </x:row>
     <x:row r="46" spans="1:2">
       <x:c r="A46" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B46">
         <x:v>23</x:v>
@@ -4980,7 +4980,7 @@
     </x:row>
     <x:row r="47" spans="1:2">
       <x:c r="A47" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B47">
         <x:v>23</x:v>
@@ -4988,7 +4988,7 @@
     </x:row>
     <x:row r="48" spans="1:2">
       <x:c r="A48" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B48">
         <x:v>24</x:v>
@@ -4996,7 +4996,7 @@
     </x:row>
     <x:row r="49" spans="1:2">
       <x:c r="A49" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B49">
         <x:v>24</x:v>
@@ -5004,7 +5004,7 @@
     </x:row>
     <x:row r="50" spans="1:2">
       <x:c r="A50" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B50">
         <x:v>25</x:v>
@@ -5012,7 +5012,7 @@
     </x:row>
     <x:row r="51" spans="1:2">
       <x:c r="A51" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B51">
         <x:v>25</x:v>
@@ -5020,7 +5020,7 @@
     </x:row>
     <x:row r="52" spans="1:2">
       <x:c r="A52" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B52">
         <x:v>26</x:v>
@@ -5028,7 +5028,7 @@
     </x:row>
     <x:row r="53" spans="1:2">
       <x:c r="A53" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B53">
         <x:v>26</x:v>
@@ -5036,7 +5036,7 @@
     </x:row>
     <x:row r="54" spans="1:2">
       <x:c r="A54" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B54">
         <x:v>27</x:v>
@@ -5044,7 +5044,7 @@
     </x:row>
     <x:row r="55" spans="1:2">
       <x:c r="A55" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B55">
         <x:v>27</x:v>
@@ -5052,7 +5052,7 @@
     </x:row>
     <x:row r="56" spans="1:2">
       <x:c r="A56" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B56">
         <x:v>28</x:v>
@@ -5060,7 +5060,7 @@
     </x:row>
     <x:row r="57" spans="1:2">
       <x:c r="A57" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B57">
         <x:v>28</x:v>
@@ -5068,7 +5068,7 @@
     </x:row>
     <x:row r="58" spans="1:2">
       <x:c r="A58" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B58">
         <x:v>29</x:v>
@@ -5076,7 +5076,7 @@
     </x:row>
     <x:row r="59" spans="1:2">
       <x:c r="A59" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B59">
         <x:v>29</x:v>
@@ -5084,7 +5084,7 @@
     </x:row>
     <x:row r="60" spans="1:2">
       <x:c r="A60" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B60">
         <x:v>30</x:v>
@@ -5092,7 +5092,7 @@
     </x:row>
     <x:row r="61" spans="1:2">
       <x:c r="A61" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B61">
         <x:v>30</x:v>
@@ -5100,7 +5100,7 @@
     </x:row>
     <x:row r="62" spans="1:2">
       <x:c r="A62" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B62">
         <x:v>31</x:v>
@@ -5108,7 +5108,7 @@
     </x:row>
     <x:row r="63" spans="1:2">
       <x:c r="A63" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B63">
         <x:v>31</x:v>
@@ -5116,7 +5116,7 @@
     </x:row>
     <x:row r="64" spans="1:2">
       <x:c r="A64" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B64">
         <x:v>32</x:v>
@@ -5124,7 +5124,7 @@
     </x:row>
     <x:row r="65" spans="1:2">
       <x:c r="A65" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B65">
         <x:v>32</x:v>
@@ -5132,7 +5132,7 @@
     </x:row>
     <x:row r="66" spans="1:2">
       <x:c r="A66" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B66">
         <x:v>33</x:v>
@@ -5140,7 +5140,7 @@
     </x:row>
     <x:row r="67" spans="1:2">
       <x:c r="A67" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B67">
         <x:v>33</x:v>
@@ -5148,7 +5148,7 @@
     </x:row>
     <x:row r="68" spans="1:2">
       <x:c r="A68" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B68">
         <x:v>34</x:v>
@@ -5156,7 +5156,7 @@
     </x:row>
     <x:row r="69" spans="1:2">
       <x:c r="A69" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B69">
         <x:v>34</x:v>
@@ -5164,7 +5164,7 @@
     </x:row>
     <x:row r="70" spans="1:2">
       <x:c r="A70" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B70">
         <x:v>35</x:v>
@@ -5172,7 +5172,7 @@
     </x:row>
     <x:row r="71" spans="1:2">
       <x:c r="A71" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B71">
         <x:v>35</x:v>
@@ -5180,7 +5180,7 @@
     </x:row>
     <x:row r="72" spans="1:2">
       <x:c r="A72" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B72">
         <x:v>36</x:v>
@@ -5188,7 +5188,7 @@
     </x:row>
     <x:row r="73" spans="1:2">
       <x:c r="A73" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B73">
         <x:v>36</x:v>
@@ -5196,7 +5196,7 @@
     </x:row>
     <x:row r="74" spans="1:2">
       <x:c r="A74" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B74">
         <x:v>37</x:v>
@@ -5204,7 +5204,7 @@
     </x:row>
     <x:row r="75" spans="1:2">
       <x:c r="A75" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B75">
         <x:v>37</x:v>
@@ -5212,7 +5212,7 @@
     </x:row>
     <x:row r="76" spans="1:2">
       <x:c r="A76" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B76">
         <x:v>38</x:v>
@@ -5220,7 +5220,7 @@
     </x:row>
     <x:row r="77" spans="1:2">
       <x:c r="A77" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B77">
         <x:v>38</x:v>
@@ -5228,7 +5228,7 @@
     </x:row>
     <x:row r="78" spans="1:2">
       <x:c r="A78" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B78">
         <x:v>39</x:v>
@@ -5236,7 +5236,7 @@
     </x:row>
     <x:row r="79" spans="1:2">
       <x:c r="A79" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B79">
         <x:v>39</x:v>
@@ -5244,7 +5244,7 @@
     </x:row>
     <x:row r="80" spans="1:2">
       <x:c r="A80" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B80">
         <x:v>40</x:v>
@@ -5252,7 +5252,7 @@
     </x:row>
     <x:row r="81" spans="1:2">
       <x:c r="A81" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B81">
         <x:v>40</x:v>
@@ -5260,7 +5260,7 @@
     </x:row>
     <x:row r="82" spans="1:2">
       <x:c r="A82" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B82">
         <x:v>41</x:v>
@@ -5268,7 +5268,7 @@
     </x:row>
     <x:row r="83" spans="1:2">
       <x:c r="A83" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B83">
         <x:v>41</x:v>
@@ -5276,7 +5276,7 @@
     </x:row>
     <x:row r="84" spans="1:2">
       <x:c r="A84" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B84">
         <x:v>42</x:v>
@@ -5284,7 +5284,7 @@
     </x:row>
     <x:row r="85" spans="1:2">
       <x:c r="A85" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B85">
         <x:v>42</x:v>
@@ -5292,7 +5292,7 @@
     </x:row>
     <x:row r="86" spans="1:2">
       <x:c r="A86" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B86">
         <x:v>43</x:v>
@@ -5300,7 +5300,7 @@
     </x:row>
     <x:row r="87" spans="1:2">
       <x:c r="A87" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B87">
         <x:v>43</x:v>
@@ -5308,7 +5308,7 @@
     </x:row>
     <x:row r="88" spans="1:2">
       <x:c r="A88" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B88">
         <x:v>44</x:v>
@@ -5316,7 +5316,7 @@
     </x:row>
     <x:row r="89" spans="1:2">
       <x:c r="A89" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B89">
         <x:v>44</x:v>
@@ -5324,7 +5324,7 @@
     </x:row>
     <x:row r="90" spans="1:2">
       <x:c r="A90" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B90">
         <x:v>45</x:v>
@@ -5332,7 +5332,7 @@
     </x:row>
     <x:row r="91" spans="1:2">
       <x:c r="A91" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B91">
         <x:v>45</x:v>
@@ -5340,7 +5340,7 @@
     </x:row>
     <x:row r="92" spans="1:2">
       <x:c r="A92" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B92">
         <x:v>46</x:v>
@@ -5348,7 +5348,7 @@
     </x:row>
     <x:row r="93" spans="1:2">
       <x:c r="A93" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B93">
         <x:v>46</x:v>
@@ -5356,7 +5356,7 @@
     </x:row>
     <x:row r="94" spans="1:2">
       <x:c r="A94" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B94">
         <x:v>47</x:v>
@@ -5364,7 +5364,7 @@
     </x:row>
     <x:row r="95" spans="1:2">
       <x:c r="A95" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B95">
         <x:v>47</x:v>
@@ -5372,7 +5372,7 @@
     </x:row>
     <x:row r="96" spans="1:2">
       <x:c r="A96" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B96">
         <x:v>48</x:v>
@@ -5380,7 +5380,7 @@
     </x:row>
     <x:row r="97" spans="1:2">
       <x:c r="A97" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B97">
         <x:v>48</x:v>
@@ -5388,7 +5388,7 @@
     </x:row>
     <x:row r="98" spans="1:2">
       <x:c r="A98" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B98">
         <x:v>49</x:v>
@@ -5396,7 +5396,7 @@
     </x:row>
     <x:row r="99" spans="1:2">
       <x:c r="A99" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B99">
         <x:v>49</x:v>
@@ -5404,7 +5404,7 @@
     </x:row>
     <x:row r="100" spans="1:2">
       <x:c r="A100" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B100">
         <x:v>50</x:v>
@@ -5412,14 +5412,14 @@
     </x:row>
     <x:row r="101" spans="1:2">
       <x:c r="A101" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B101">
         <x:v>50</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -5429,7 +5429,7 @@
   <x:sheetPr codeName="工作表4"/>
   <x:dimension ref="A1:C24"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="I10" activeCellId="0" sqref="I10:I10"/>
     </x:sheetView>
   </x:sheetViews>
@@ -5437,13 +5437,13 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" t="s">
-        <x:v>32</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B1" t="s">
-        <x:v>241</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C1" t="s">
-        <x:v>240</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
@@ -5451,7 +5451,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" t="s">
-        <x:v>105</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C2">
         <x:v>0</x:v>
@@ -5462,7 +5462,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B3" t="s">
-        <x:v>40</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C3">
         <x:v>0</x:v>
@@ -5473,7 +5473,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B4" t="s">
-        <x:v>41</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C4">
         <x:v>0</x:v>
@@ -5484,7 +5484,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B5" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C5">
         <x:v>0</x:v>
@@ -5495,7 +5495,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B6" t="s">
-        <x:v>42</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C6">
         <x:v>1</x:v>
@@ -5506,7 +5506,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B7" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C7">
         <x:v>1</x:v>
@@ -5517,7 +5517,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B8" t="s">
-        <x:v>46</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C8">
         <x:v>1</x:v>
@@ -5528,7 +5528,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B9" t="s">
-        <x:v>45</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C9">
         <x:v>1</x:v>
@@ -5539,7 +5539,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B10" t="s">
-        <x:v>9</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C10">
         <x:v>5</x:v>
@@ -5550,7 +5550,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B11" t="s">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C11">
         <x:v>5</x:v>
@@ -5561,7 +5561,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B12" t="s">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C12">
         <x:v>5</x:v>
@@ -5583,7 +5583,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B14" t="s">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C14">
         <x:v>6</x:v>
@@ -5594,7 +5594,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B15" t="s">
-        <x:v>36</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C15">
         <x:v>6</x:v>
@@ -5605,7 +5605,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B16" t="s">
-        <x:v>17</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C16">
         <x:v>6</x:v>
@@ -5616,7 +5616,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B17" t="s">
-        <x:v>11</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C17">
         <x:v>7</x:v>
@@ -5627,7 +5627,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B18" t="s">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C18">
         <x:v>7</x:v>
@@ -5638,7 +5638,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B19" t="s">
-        <x:v>33</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C19">
         <x:v>7</x:v>
@@ -5649,7 +5649,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="B20" t="s">
-        <x:v>34</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C20">
         <x:v>7</x:v>
@@ -5660,7 +5660,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B21" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C21">
         <x:v>8</x:v>
@@ -5671,7 +5671,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B22" t="s">
-        <x:v>2</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C22">
         <x:v>8</x:v>
@@ -5682,7 +5682,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B23" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C23">
         <x:v>8</x:v>
@@ -5693,14 +5693,14 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B24" t="s">
-        <x:v>8</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C24">
         <x:v>8</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>